--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646938</v>
+        <v>572993.6190112262</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226762</v>
+        <v>8547013.059513938</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -659,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>165.1725371760945</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.45644170423123</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>151.4873875394543</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.70122005611984</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,13 +983,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>125.4037049434886</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
@@ -1032,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>176.7481829108911</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.40342053135935</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>86.98603117431365</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976805</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612777</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>201.66221878632</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414546</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.1566550598663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>160.8915086215189</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>284.4297735342301</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>188.6059442291534</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.682695777305</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394544</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>122.8356537495209</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>76.01103075490357</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>205.1127822067379</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>20.95866062611006</v>
+        <v>188.1518615973395</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>242.8528437613046</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>90.40834918925519</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414546</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.9236777330952</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>20.95866062611006</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>267.3172025050109</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>242.6334155076106</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414546</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>117.7126336312593</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>47.38664856090098</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>91.06967859962781</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>115.0138334144191</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.32727861849627</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>317.1191748890796</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>46.66139061606948</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>181.2984880399302</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041388</v>
       </c>
       <c r="H32" t="n">
-        <v>241.649931431764</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3125,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851181</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
         <v>18.8172186824774</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>12.40418031676417</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.7665065845765</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>200.8052136229463</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>105.0023863360942</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824781</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.35882079147981</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>131.5522128412696</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="W38" t="n">
-        <v>251.2852794514165</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824781</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>58.94788863247354</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.0138334144183</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H41" t="n">
-        <v>79.41818244097735</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
         <v>18.8172186824774</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>48.21534234085947</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>207.5633616506868</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>292.3520130340207</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4119,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034782</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>20.95866062611014</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>210.8180784218841</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323101</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058939</v>
@@ -4337,43 +4339,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>203.0474416122419</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>28.59441233111491</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810244</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>336.2349471645396</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>336.2349471645396</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V3" t="n">
-        <v>336.2349471645396</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
-        <v>336.2349471645396</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X3" t="n">
-        <v>336.2349471645396</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.2173839933736</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4531,7 +4533,7 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.0001061843506</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C5" t="n">
-        <v>710.0001061843506</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D5" t="n">
-        <v>710.0001061843506</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0001061843506</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F5" t="n">
-        <v>520.5803211678658</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1605361513811</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678492</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058942</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>710.0001061843506</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>710.0001061843506</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T5" t="n">
-        <v>710.0001061843506</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U5" t="n">
-        <v>710.0001061843506</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V5" t="n">
-        <v>710.0001061843506</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W5" t="n">
-        <v>710.0001061843506</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X5" t="n">
-        <v>710.0001061843506</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.0001061843506</v>
+        <v>204.4218319897904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>571.5688305734704</v>
+        <v>392.4672266287269</v>
       </c>
       <c r="C6" t="n">
-        <v>571.5688305734704</v>
+        <v>392.4672266287269</v>
       </c>
       <c r="D6" t="n">
-        <v>422.6344209122192</v>
+        <v>243.5328169674756</v>
       </c>
       <c r="E6" t="n">
-        <v>263.3969659067637</v>
+        <v>243.5328169674756</v>
       </c>
       <c r="F6" t="n">
-        <v>116.8624079336487</v>
+        <v>243.5328169674756</v>
       </c>
       <c r="G6" t="n">
         <v>116.8624079336487</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024216</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
         <v>183.5548280772649</v>
@@ -4659,37 +4661,37 @@
         <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V6" t="n">
-        <v>571.5688305734704</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W6" t="n">
-        <v>571.5688305734704</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X6" t="n">
-        <v>571.5688305734704</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y6" t="n">
-        <v>571.5688305734704</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
         <v>27.03967056230176</v>
@@ -4744,31 +4746,31 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.385664683499</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C8" t="n">
-        <v>787.4231477430878</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="D8" t="n">
-        <v>429.1574491363373</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="E8" t="n">
-        <v>43.36919653809306</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36919653809306</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232727</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V8" t="n">
-        <v>1914.852662567162</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W8" t="n">
-        <v>1562.084007297048</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X8" t="n">
-        <v>1562.084007297048</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y8" t="n">
-        <v>1171.944675321236</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>131.2338744919452</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835204</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.55206530918</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.450475442444</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V9" t="n">
-        <v>969.2983672107016</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="W9" t="n">
-        <v>715.0610104825</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="X9" t="n">
-        <v>507.2095102769672</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>299.4492115120133</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228008</v>
@@ -5124,10 +5126,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5142,22 +5144,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>798.5065461617548</v>
+        <v>229.0287918074551</v>
       </c>
       <c r="C13" t="n">
-        <v>629.570363233848</v>
+        <v>229.0287918074551</v>
       </c>
       <c r="D13" t="n">
-        <v>479.4537238215122</v>
+        <v>229.0287918074551</v>
       </c>
       <c r="E13" t="n">
-        <v>331.5406302391191</v>
+        <v>229.0287918074551</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>229.0287918074551</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962291</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5236,13 +5238,13 @@
         <v>920.8870058181855</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181855</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181855</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181855</v>
+        <v>410.6772566376948</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308157</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367746</v>
+        <v>1827.135477358712</v>
       </c>
       <c r="D14" t="n">
-        <v>1448.172675760995</v>
+        <v>1468.869778751961</v>
       </c>
       <c r="E14" t="n">
-        <v>1062.384423162751</v>
+        <v>1083.081526153717</v>
       </c>
       <c r="F14" t="n">
-        <v>651.3985183731436</v>
+        <v>672.0956213641095</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>257.023171209106</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,16 +5290,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5315,13 +5317,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.140063348091</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372279</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228008</v>
@@ -5361,10 +5363,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5458,28 +5460,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181855</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181855</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181855</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181855</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1285.591601078696</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C17" t="n">
-        <v>916.6290841382845</v>
+        <v>1843.809051073444</v>
       </c>
       <c r="D17" t="n">
-        <v>558.363385531534</v>
+        <v>1485.543352466693</v>
       </c>
       <c r="E17" t="n">
-        <v>558.363385531534</v>
+        <v>1099.755099868449</v>
       </c>
       <c r="F17" t="n">
-        <v>481.584566587187</v>
+        <v>688.7691950788414</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>273.6967449238379</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810565</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5531,34 +5533,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2788.565186649824</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2435.796531379709</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X17" t="n">
-        <v>2062.33077311863</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y17" t="n">
-        <v>1672.191441142818</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228003</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
@@ -5613,7 +5615,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125857</v>
@@ -5622,16 +5624,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
         <v>809.015235706886</v>
@@ -5701,22 +5703,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>899.7166415493874</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="U19" t="n">
-        <v>610.613774675031</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="V19" t="n">
-        <v>355.9292864691441</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="W19" t="n">
-        <v>66.51211643218345</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218345</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218345</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.514489367197</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C20" t="n">
-        <v>1221.551972426786</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200353</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218345</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450755</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180641</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X20" t="n">
-        <v>1980.653821343009</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y20" t="n">
-        <v>1590.514489367197</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
@@ -5853,22 +5855,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218345</v>
+        <v>376.785347575338</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218345</v>
+        <v>207.8491646474311</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218345</v>
+        <v>207.8491646474311</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218345</v>
+        <v>207.8491646474311</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218345</v>
+        <v>207.8491646474311</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218345</v>
+        <v>207.8491646474311</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O22" t="n">
         <v>809.015235706886</v>
@@ -5938,22 +5940,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T22" t="n">
-        <v>899.7166415493874</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U22" t="n">
-        <v>610.613774675031</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V22" t="n">
-        <v>355.9292864691441</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="W22" t="n">
-        <v>66.51211643218345</v>
+        <v>376.785347575338</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218345</v>
+        <v>376.785347575338</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218345</v>
+        <v>376.785347575338</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.569348694474</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C23" t="n">
-        <v>1491.569348694474</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="D23" t="n">
-        <v>1133.303650087723</v>
+        <v>1523.442982063534</v>
       </c>
       <c r="E23" t="n">
-        <v>747.5153974894788</v>
+        <v>1137.65472946529</v>
       </c>
       <c r="F23" t="n">
-        <v>336.5294926998712</v>
+        <v>726.6688246756826</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218345</v>
+        <v>311.596374520679</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810556</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6002,7 +6004,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
         <v>2994.542934265601</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995487</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X23" t="n">
         <v>2268.308520734407</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.169188758595</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="24">
@@ -6057,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031481</v>
@@ -6087,7 +6089,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218345</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218345</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218345</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218345</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218345</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O25" t="n">
         <v>809.015235706886</v>
@@ -6172,25 +6174,25 @@
         <v>920.8870058181855</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T25" t="n">
-        <v>873.0217042415178</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U25" t="n">
-        <v>583.9188373671614</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="V25" t="n">
-        <v>583.9188373671614</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302008</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218345</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218345</v>
+        <v>185.4137665647686</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1477.112184968823</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C26" t="n">
-        <v>1108.149668028411</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D26" t="n">
-        <v>749.8839694216605</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E26" t="n">
-        <v>364.0957168234162</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883009</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2980.08577053995</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2627.317115269836</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X26" t="n">
-        <v>2253.851357008756</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y26" t="n">
-        <v>1863.712025032944</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="27">
@@ -6279,70 +6281,70 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
@@ -6358,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.6810847336948</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>150.6810847336948</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>150.6810847336948</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>150.6810847336948</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>150.6810847336948</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>150.6810847336948</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O28" t="n">
         <v>809.015235706886</v>
@@ -6409,25 +6411,25 @@
         <v>920.8870058181855</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T28" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U28" t="n">
-        <v>440.0982547706554</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V28" t="n">
-        <v>440.0982547706554</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W28" t="n">
-        <v>150.6810847336948</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X28" t="n">
-        <v>150.6810847336948</v>
+        <v>403.4802848832076</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.6810847336948</v>
+        <v>182.6877057396775</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1502.309837160186</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1133.347320219774</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>775.0816216130238</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>775.0816216130238</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
@@ -6497,16 +6499,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>3005.283422731313</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2652.514767461199</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X29" t="n">
-        <v>2279.049009200119</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y29" t="n">
-        <v>1888.909677224308</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6542,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031473</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.4482993600903</v>
+        <v>263.7614736385287</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>263.7614736385287</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>113.644834226193</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>113.644834226193</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>113.644834226193</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>113.644834226193</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218343</v>
@@ -6643,28 +6645,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T31" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U31" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V31" t="n">
-        <v>639.3706644025399</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="W31" t="n">
-        <v>639.3706644025399</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="X31" t="n">
-        <v>456.2408785036205</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.4482993600903</v>
+        <v>445.4099384687685</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2291.674678112797</v>
+        <v>1822.632236038045</v>
       </c>
       <c r="C32" t="n">
-        <v>1922.712161172385</v>
+        <v>1453.669719097633</v>
       </c>
       <c r="D32" t="n">
-        <v>1564.446462565635</v>
+        <v>1095.404020490883</v>
       </c>
       <c r="E32" t="n">
-        <v>1178.65820996739</v>
+        <v>709.6157678926384</v>
       </c>
       <c r="F32" t="n">
-        <v>767.6723051777828</v>
+        <v>298.6298631030308</v>
       </c>
       <c r="G32" t="n">
-        <v>352.5998550227793</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218345</v>
@@ -6725,25 +6727,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176919</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W32" t="n">
-        <v>2678.274518176919</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X32" t="n">
-        <v>2678.274518176919</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y32" t="n">
-        <v>2678.274518176919</v>
+        <v>2209.232076102167</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811093</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999823</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D33" t="n">
-        <v>618.156415538731</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332755</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601605</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927786</v>
+        <v>936.5735814686093</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064768</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080147</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986313</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.8974549201681</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C34" t="n">
-        <v>523.9612719922612</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D34" t="n">
-        <v>373.8446325799255</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E34" t="n">
-        <v>225.9315389975324</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F34" t="n">
-        <v>79.041591499622</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218345</v>
@@ -6883,25 +6885,25 @@
         <v>920.8870058181855</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181855</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181855</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181855</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181855</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181855</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X34" t="n">
-        <v>692.8974549201681</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.8974549201681</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1179.52858457759</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C35" t="n">
-        <v>810.5660676371781</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>452.3003690304276</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218343</v>
@@ -6965,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>1956.267756617523</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>1566.128424641711</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="36">
@@ -6990,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3231.303982425859</v>
+        <v>518.4459618444156</v>
       </c>
       <c r="C37" t="n">
-        <v>3062.367799497952</v>
+        <v>349.5097789165087</v>
       </c>
       <c r="D37" t="n">
-        <v>2912.251160085616</v>
+        <v>199.393139504173</v>
       </c>
       <c r="E37" t="n">
-        <v>2764.338066503223</v>
+        <v>199.393139504173</v>
       </c>
       <c r="F37" t="n">
-        <v>2617.448119005312</v>
+        <v>199.393139504173</v>
       </c>
       <c r="G37" t="n">
-        <v>2617.448119005312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y37" t="n">
-        <v>3325.605821609171</v>
+        <v>700.0944266746553</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218343</v>
@@ -7208,16 +7210,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265601</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7272,25 +7274,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3143.957356778932</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C40" t="n">
-        <v>2975.021173851025</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D40" t="n">
-        <v>2824.904534438689</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E40" t="n">
-        <v>2676.991440856296</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F40" t="n">
-        <v>2676.991440856296</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G40" t="n">
-        <v>2617.448119005312</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H40" t="n">
         <v>2471.23093222317</v>
@@ -7357,25 +7359,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>3209.430232301678</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>3209.430232301678</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>3209.430232301678</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>3209.430232301678</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.605821609171</v>
+        <v>2920.013062264718</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.605821609171</v>
+        <v>2692.0235113667</v>
       </c>
       <c r="Y40" t="n">
-        <v>3325.605821609171</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2085.807325826218</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1716.844808885807</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>1358.579110279056</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E41" t="n">
-        <v>972.790857680812</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F41" t="n">
-        <v>561.8049528912045</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G41" t="n">
-        <v>146.732502736201</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866152</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2862.546497866152</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>2472.40716589034</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
@@ -7509,25 +7511,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.3151575124869</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="C43" t="n">
-        <v>361.3151575124869</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7597,22 +7599,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877115</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133551</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V43" t="n">
-        <v>361.3151575124869</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W43" t="n">
-        <v>361.3151575124869</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X43" t="n">
-        <v>361.3151575124869</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.3151575124869</v>
+        <v>711.2270445548654</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7676,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>3119.628073993394</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7728,43 +7730,43 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497872</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U46" t="n">
-        <v>3112.658267647672</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V46" t="n">
-        <v>2857.973779441786</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W46" t="n">
-        <v>2568.556609404825</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="X46" t="n">
-        <v>2568.556609404825</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="Y46" t="n">
-        <v>2568.556609404825</v>
+        <v>87.68248070098156</v>
       </c>
     </row>
   </sheetData>
@@ -22547,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>241.7035085656169</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.097833230058</v>
@@ -22604,16 +22606,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940404</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>133.9886238604075</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681299</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.19530823785004</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -22711,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>94.21801639213474</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976603</v>
       </c>
     </row>
     <row r="5">
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>225.5722460637381</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.38049896054394</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22838,13 +22840,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893569</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,13 +22871,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>10.76008442228671</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22920,10 +22922,10 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>56.05240423853414</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22954,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482798</v>
       </c>
       <c r="H7" t="n">
         <v>153.4336708318196</v>
@@ -22984,7 +22986,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.47009429716283</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.3304211321212</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>151.7212889301277</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>85.72246781400209</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>40.60044802738287</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23179,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888598</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>101.2177245773851</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>255.1805474109841</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.33295317258202</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.675325122071</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.134299637509315</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>126.4919521192234</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>106.0018201581671</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292592</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778757926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>96.71329552664834</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>330.8650149868079</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>89.49498218058253</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292592</v>
@@ -23783,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,19 +23943,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>198.5902886500591</v>
+        <v>31.39708767882971</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>168.0688818921489</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>279.3227514892138</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>4.831337181225621</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24178,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>198.5902886500591</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>143.6045231484426</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>51.97434887970982</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292592</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>48.31317462776894</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24412,22 +24414,22 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>172.1623007152682</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,10 +24499,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>236.6825798705071</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751823</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>61.42773629582452</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,13 +24651,13 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,10 +24739,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>10.6330835810553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>98.0936242982513</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24895,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>44.41116734910696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493146</v>
       </c>
       <c r="H32" t="n">
-        <v>52.95783295555648</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>153.6216279422641</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,7 +25125,7 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>36.00251874686538</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25205,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>145.9927856228078</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.47315939045748</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>34.47359541775859</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25448,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>159.6364462020373</v>
       </c>
       <c r="W38" t="n">
-        <v>97.95568926599654</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>107.0779196265547</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25597,7 +25599,7 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>74.75519191702355</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H41" t="n">
-        <v>215.1895819463431</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292592</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25837,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>203.9223009829685</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>11.02129170140796</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -25925,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>77.3790876444483</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>158.8733195558272</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>75.39375978372877</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061953</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526516</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.492290312</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="15">
@@ -26317,7 +26319,7 @@
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784386</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
         <v>312588.928500312</v>
@@ -26326,34 +26328,34 @@
         <v>312588.928500312</v>
       </c>
       <c r="G2" t="n">
+        <v>312588.928500312</v>
+      </c>
+      <c r="H2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="I2" t="n">
         <v>312588.9285003119</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312588.9285003118</v>
       </c>
       <c r="J2" t="n">
         <v>312588.9285003118</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="L2" t="n">
         <v>312588.9285003121</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003121</v>
+        <v>312588.9285003117</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487659</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669103</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127035</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608617</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469135</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061234</v>
@@ -26430,31 +26432,31 @@
         <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061235</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061234</v>
       </c>
       <c r="I4" t="n">
+        <v>584.6469890061234</v>
+      </c>
+      <c r="J4" t="n">
         <v>584.6469890061232</v>
-      </c>
-      <c r="J4" t="n">
-        <v>584.6469890061234</v>
       </c>
       <c r="K4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061232</v>
@@ -26470,10 +26472,10 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
+        <v>56985.80041161358</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161357</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139331</v>
@@ -26482,16 +26484,16 @@
         <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139331</v>
@@ -26525,43 +26527,43 @@
         <v>101184.0617941906</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514465</v>
+        <v>101184.0617941906</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.80481699772</v>
+        <v>-389436.7026837553</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499125</v>
+        <v>237697.9409499126</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499124</v>
+        <v>237697.9409499126</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499125</v>
+        <v>237697.9409499123</v>
       </c>
       <c r="I6" t="n">
         <v>237697.9409499124</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213677</v>
+        <v>188632.9962213678</v>
       </c>
       <c r="K6" t="n">
+        <v>237697.9409499125</v>
+      </c>
+      <c r="L6" t="n">
+        <v>237697.9409499127</v>
+      </c>
+      <c r="M6" t="n">
+        <v>77241.49908203505</v>
+      </c>
+      <c r="N6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="O6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="P6" t="n">
         <v>237697.9409499123</v>
-      </c>
-      <c r="L6" t="n">
-        <v>147954.5628186423</v>
-      </c>
-      <c r="M6" t="n">
-        <v>165606.5883338265</v>
-      </c>
-      <c r="N6" t="n">
-        <v>237697.9409499126</v>
-      </c>
-      <c r="O6" t="n">
-        <v>237697.9409499125</v>
-      </c>
-      <c r="P6" t="n">
-        <v>237697.9409499126</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593299</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="C4" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="D4" t="n">
-        <v>542.1149567261632</v>
-      </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247794</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556145</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32236,7 +32238,7 @@
         <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003821</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
         <v>691.3565293623195</v>
@@ -32251,7 +32253,7 @@
         <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q17" t="n">
         <v>473.0999946781691</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905542</v>
@@ -33023,7 +33025,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353158</v>
@@ -33260,10 +33262,10 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K30" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138797</v>
@@ -33497,7 +33499,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353158</v>
@@ -33676,7 +33678,7 @@
         <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781685</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
         <v>275.198736356357</v>
@@ -33734,7 +33736,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353158</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905542</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905542</v>
@@ -34390,7 +34392,7 @@
         <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563564</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806954</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138797</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554015</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923323</v>
@@ -35899,7 +35901,7 @@
         <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037196</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609568</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K30" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340056</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609568</v>
@@ -37324,7 +37326,7 @@
         <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222484</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609568</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340056</v>
